--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cd5l</t>
+  </si>
+  <si>
+    <t>Cd5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cd5l</t>
-  </si>
-  <si>
-    <t>Cd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2246243333333333</v>
+        <v>1.738993</v>
       </c>
       <c r="H2">
-        <v>0.6738729999999999</v>
+        <v>5.216979</v>
       </c>
       <c r="I2">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.439038333333333</v>
+        <v>0.5581299999999999</v>
       </c>
       <c r="N2">
-        <v>4.317115</v>
+        <v>1.67439</v>
       </c>
       <c r="O2">
-        <v>0.3449011277814652</v>
+        <v>0.1374720912089751</v>
       </c>
       <c r="P2">
-        <v>0.3449011277814653</v>
+        <v>0.1374720912089751</v>
       </c>
       <c r="Q2">
-        <v>0.3232430262661111</v>
+        <v>0.9705841630899998</v>
       </c>
       <c r="R2">
-        <v>2.909187236395</v>
+        <v>8.735257467809999</v>
       </c>
       <c r="S2">
-        <v>0.02190770634695789</v>
+        <v>0.1374720912089751</v>
       </c>
       <c r="T2">
-        <v>0.02190770634695789</v>
+        <v>0.1374720912089751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2246243333333333</v>
+        <v>1.738993</v>
       </c>
       <c r="H3">
-        <v>0.6738729999999999</v>
+        <v>5.216979</v>
       </c>
       <c r="I3">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.948712</v>
       </c>
       <c r="O3">
-        <v>0.2355772533978687</v>
+        <v>0.2420974832703249</v>
       </c>
       <c r="P3">
-        <v>0.2355772533978687</v>
+        <v>0.2420974832703249</v>
       </c>
       <c r="Q3">
-        <v>0.2207841557306666</v>
+        <v>1.709263175672</v>
       </c>
       <c r="R3">
-        <v>1.987057401576</v>
+        <v>15.383368581048</v>
       </c>
       <c r="S3">
-        <v>0.01496358484723036</v>
+        <v>0.2420974832703249</v>
       </c>
       <c r="T3">
-        <v>0.01496358484723036</v>
+        <v>0.2420974832703249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2246243333333333</v>
+        <v>1.738993</v>
       </c>
       <c r="H4">
-        <v>0.6738729999999999</v>
+        <v>5.216979</v>
       </c>
       <c r="I4">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1284366666666667</v>
+        <v>1.090363</v>
       </c>
       <c r="N4">
-        <v>0.38531</v>
+        <v>3.271089</v>
       </c>
       <c r="O4">
-        <v>0.03078302374281815</v>
+        <v>0.2685655345293959</v>
       </c>
       <c r="P4">
-        <v>0.03078302374281815</v>
+        <v>0.2685655345293959</v>
       </c>
       <c r="Q4">
-        <v>0.02885000062555556</v>
+        <v>1.896133624459</v>
       </c>
       <c r="R4">
-        <v>0.25965000563</v>
+        <v>17.065202620131</v>
       </c>
       <c r="S4">
-        <v>0.001955300781319549</v>
+        <v>0.2685655345293959</v>
       </c>
       <c r="T4">
-        <v>0.001955300781319549</v>
+        <v>0.2685655345293959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2246243333333333</v>
+        <v>1.738993</v>
       </c>
       <c r="H5">
-        <v>0.6738729999999999</v>
+        <v>5.216979</v>
       </c>
       <c r="I5">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.06351880171536857</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.621942333333333</v>
+        <v>1.428554333333333</v>
       </c>
       <c r="N5">
-        <v>4.865827</v>
+        <v>4.285663</v>
       </c>
       <c r="O5">
-        <v>0.3887385950778479</v>
+        <v>0.3518648909913042</v>
       </c>
       <c r="P5">
-        <v>0.388738595077848</v>
+        <v>0.3518648909913042</v>
       </c>
       <c r="Q5">
-        <v>0.3643277153301111</v>
+        <v>2.484245985786333</v>
       </c>
       <c r="R5">
-        <v>3.278949437971</v>
+        <v>22.358213872077</v>
       </c>
       <c r="S5">
-        <v>0.02469220973986077</v>
+        <v>0.3518648909913042</v>
       </c>
       <c r="T5">
-        <v>0.02469220973986078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.311719666666666</v>
-      </c>
-      <c r="H6">
-        <v>9.935158999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="J6">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.439038333333333</v>
-      </c>
-      <c r="N6">
-        <v>4.317115</v>
-      </c>
-      <c r="O6">
-        <v>0.3449011277814652</v>
-      </c>
-      <c r="P6">
-        <v>0.3449011277814653</v>
-      </c>
-      <c r="Q6">
-        <v>4.765691549587222</v>
-      </c>
-      <c r="R6">
-        <v>42.891223946285</v>
-      </c>
-      <c r="S6">
-        <v>0.3229934214345073</v>
-      </c>
-      <c r="T6">
-        <v>0.3229934214345074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.311719666666666</v>
-      </c>
-      <c r="H7">
-        <v>9.935158999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="J7">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.982904</v>
-      </c>
-      <c r="N7">
-        <v>2.948712</v>
-      </c>
-      <c r="O7">
-        <v>0.2355772533978687</v>
-      </c>
-      <c r="P7">
-        <v>0.2355772533978687</v>
-      </c>
-      <c r="Q7">
-        <v>3.255102507245333</v>
-      </c>
-      <c r="R7">
-        <v>29.295922565208</v>
-      </c>
-      <c r="S7">
-        <v>0.2206136685506383</v>
-      </c>
-      <c r="T7">
-        <v>0.2206136685506383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.311719666666666</v>
-      </c>
-      <c r="H8">
-        <v>9.935158999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="J8">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.1284366666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.38531</v>
-      </c>
-      <c r="O8">
-        <v>0.03078302374281815</v>
-      </c>
-      <c r="P8">
-        <v>0.03078302374281815</v>
-      </c>
-      <c r="Q8">
-        <v>0.4253462349211111</v>
-      </c>
-      <c r="R8">
-        <v>3.828116114289999</v>
-      </c>
-      <c r="S8">
-        <v>0.0288277229614986</v>
-      </c>
-      <c r="T8">
-        <v>0.0288277229614986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.311719666666666</v>
-      </c>
-      <c r="H9">
-        <v>9.935158999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="J9">
-        <v>0.9364811982846314</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.621942333333333</v>
-      </c>
-      <c r="N9">
-        <v>4.865827</v>
-      </c>
-      <c r="O9">
-        <v>0.3887385950778479</v>
-      </c>
-      <c r="P9">
-        <v>0.388738595077848</v>
-      </c>
-      <c r="Q9">
-        <v>5.371418323499222</v>
-      </c>
-      <c r="R9">
-        <v>48.342764911493</v>
-      </c>
-      <c r="S9">
-        <v>0.3640463853379871</v>
-      </c>
-      <c r="T9">
-        <v>0.3640463853379872</v>
+        <v>0.3518648909913042</v>
       </c>
     </row>
   </sheetData>
